--- a/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 11,72</t>
+          <t>1,45; 11,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,57</t>
+          <t>-2,34; 7,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 5,52</t>
+          <t>-3,88; 5,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,22</t>
+          <t>-8,59; 2,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 10,2</t>
+          <t>-2,56; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 0,6</t>
+          <t>-9,75; 0,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,24</t>
+          <t>-1,59; 6,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,82</t>
+          <t>-0,96; 6,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 2,04</t>
+          <t>-4,62; 1,66</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 96,95</t>
+          <t>8,27; 97,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 67,19</t>
+          <t>-13,83; 59,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 42,6</t>
+          <t>-23,54; 49,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 24,87</t>
+          <t>-46,57; 21,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 79,58</t>
+          <t>-12,67; 75,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 5,61</t>
+          <t>-49,71; 5,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 46,65</t>
+          <t>-9,24; 48,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 52,14</t>
+          <t>-5,22; 49,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 16,5</t>
+          <t>-27,56; 12,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,83</t>
+          <t>-7,17; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 1,68</t>
+          <t>-8,98; 1,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,7</t>
+          <t>-4,88; 6,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 6,58</t>
+          <t>-5,72; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 5,35</t>
+          <t>-5,62; 5,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,09</t>
+          <t>-6,47; 3,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 3,29</t>
+          <t>-4,3; 3,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,85</t>
+          <t>-5,87; 1,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,2</t>
+          <t>-4,2; 3,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 30,66</t>
+          <t>-38,24; 31,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 13,24</t>
+          <t>-47,99; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 43,43</t>
+          <t>-26,69; 47,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 48,13</t>
+          <t>-29,9; 46,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,54; 38,02</t>
+          <t>-29,45; 41,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 22,59</t>
+          <t>-34,17; 28,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 22,82</t>
+          <t>-24,06; 23,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 12,42</t>
+          <t>-32,39; 10,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,94; 21,85</t>
+          <t>-23,22; 23,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 0,76</t>
+          <t>-8,69; 0,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,39; -2,6</t>
+          <t>-11,45; -2,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,04; -0,51</t>
+          <t>-17,71; -0,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 6,29</t>
+          <t>-7,32; 6,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,94</t>
+          <t>-9,67; 4,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 7,94</t>
+          <t>-6,42; 7,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,38</t>
+          <t>-7,29; 0,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -1,89</t>
+          <t>-9,81; -1,82</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 0,06</t>
+          <t>-14,47; -0,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,57; 4,59</t>
+          <t>-38,86; 3,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-53,19; -14,66</t>
+          <t>-51,79; -11,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,36; -2,13</t>
+          <t>-78,75; -1,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,49; 58,28</t>
+          <t>-40,64; 62,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,16; 49,26</t>
+          <t>-56,23; 42,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 78,44</t>
+          <t>-35,39; 76,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 3,85</t>
+          <t>-35,36; 1,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,82; -10,76</t>
+          <t>-47,93; -11,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-72,7; 0,38</t>
+          <t>-71,03; -0,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 5,29</t>
+          <t>-1,09; 5,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,73</t>
+          <t>-4,16; 1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,49</t>
+          <t>-2,51; 3,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,39</t>
+          <t>-1,99; 5,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,13</t>
+          <t>-2,77; 4,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 1,7</t>
+          <t>-8,35; 1,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,12</t>
+          <t>-0,36; 4,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,38</t>
+          <t>-3,01; 1,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,48</t>
+          <t>-5,34; 1,39</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 41,79</t>
+          <t>-7,34; 39,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 14,12</t>
+          <t>-27,52; 10,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 27,75</t>
+          <t>-16,52; 28,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 47,06</t>
+          <t>-13,73; 51,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 37,53</t>
+          <t>-19,41; 38,21</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,26; 12,86</t>
+          <t>-57,85; 11,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 32,61</t>
+          <t>-2,74; 31,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 10,76</t>
+          <t>-20,35; 11,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 11,51</t>
+          <t>-36,93; 10,5</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 7,37</t>
+          <t>-1,62; 8,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,62</t>
+          <t>-8,0; 0,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 12,28</t>
+          <t>1,11; 12,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,19</t>
+          <t>-1,32; 5,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 3,89</t>
+          <t>-2,25; 4,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 7,21</t>
+          <t>-0,23; 7,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 5,37</t>
+          <t>-0,09; 5,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,07</t>
+          <t>-2,92; 2,09</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,07</t>
+          <t>1,41; 7,94</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 71,08</t>
+          <t>-10,39; 80,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-49,19; 7,58</t>
+          <t>-49,16; 9,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,11; 125,65</t>
+          <t>6,35; 117,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 78,06</t>
+          <t>-13,72; 77,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 58,86</t>
+          <t>-21,72; 67,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 102,75</t>
+          <t>-0,89; 111,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 62,49</t>
+          <t>-0,61; 63,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 23,7</t>
+          <t>-26,6; 24,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>15,34; 93,73</t>
+          <t>12,34; 90,38</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,8; 18,58</t>
+          <t>2,78; 18,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 7,83</t>
+          <t>-5,56; 7,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 11,1</t>
+          <t>-9,48; 10,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,97</t>
+          <t>-0,56; 5,2</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 5,21</t>
+          <t>-0,57; 5,11</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 4,34</t>
+          <t>-1,85; 4,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,63</t>
+          <t>1,33; 6,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,79</t>
+          <t>-0,34; 4,7</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,99</t>
+          <t>-1,82; 4,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,44; 97,66</t>
+          <t>11,9; 96,88</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 42,01</t>
+          <t>-22,55; 41,75</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 54,88</t>
+          <t>-39,61; 53,62</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 47,77</t>
+          <t>-4,05; 49,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 48,84</t>
+          <t>-4,11; 49,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 40,83</t>
+          <t>-14,94; 42,3</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>9,14; 51,22</t>
+          <t>7,85; 53,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 37,97</t>
+          <t>-2,43; 38,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 38,68</t>
+          <t>-12,45; 38,46</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,6</t>
+          <t>0,06; 3,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -0,57</t>
+          <t>-4,03; -0,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,78</t>
+          <t>-4,33; 1,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,59</t>
+          <t>-0,62; 2,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,92</t>
+          <t>-0,32; 2,71</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,53</t>
+          <t>-2,54; 1,63</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,61</t>
+          <t>0,27; 2,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,58</t>
+          <t>-1,71; 0,65</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,14</t>
+          <t>-2,31; 1,13</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 24,46</t>
+          <t>0,4; 24,56</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-25,39; -3,74</t>
+          <t>-24,42; -4,12</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 11,71</t>
+          <t>-26,23; 11,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 22,19</t>
+          <t>-4,81; 23,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 25,17</t>
+          <t>-2,28; 23,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 12,87</t>
+          <t>-19,21; 13,97</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,91; 19,11</t>
+          <t>1,82; 19,28</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 4,32</t>
+          <t>-11,85; 4,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 8,41</t>
+          <t>-15,98; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Clase-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
